--- a/ServicesDBSpreadsheet.xlsx
+++ b/ServicesDBSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Documents\ICTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8262070-9A0D-4459-91E5-DAFCDC3E6B24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F5E67-4405-4F4F-9987-450E653C647B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6513259A-A664-4EB2-9248-5721F61D90F3}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="16200" windowHeight="11385" xr2:uid="{6513259A-A664-4EB2-9248-5721F61D90F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC10918-42F0-487A-BC91-5430C93E809D}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3136,6 +3136,9 @@
       <c r="J32" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="M32" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="Q32" s="11" t="s">
         <v>261</v>
       </c>
@@ -3824,6 +3827,9 @@
       <c r="K49" s="11" t="s">
         <v>261</v>
       </c>
+      <c r="M49" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="N49" s="11" t="s">
         <v>261</v>
       </c>
@@ -4061,6 +4067,9 @@
       <c r="J55" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="M55" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="N55" s="11" t="s">
         <v>261</v>
       </c>
@@ -4105,6 +4114,9 @@
       <c r="J56" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="M56" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="N56" s="11" t="s">
         <v>261</v>
       </c>
@@ -4149,6 +4161,9 @@
       <c r="J57" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="M57" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="N57" s="11" t="s">
         <v>261</v>
       </c>
@@ -4193,6 +4208,9 @@
       <c r="J58" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="M58" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="N58" s="11" t="s">
         <v>261</v>
       </c>
@@ -4236,6 +4254,9 @@
       </c>
       <c r="J59" s="11" t="s">
         <v>280</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>261</v>

--- a/ServicesDBSpreadsheet.xlsx
+++ b/ServicesDBSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Documents\ICTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F5E67-4405-4F4F-9987-450E653C647B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43311B-1254-4820-B744-7C2D7787C39E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="16200" windowHeight="11385" xr2:uid="{6513259A-A664-4EB2-9248-5721F61D90F3}"/>
+    <workbookView xWindow="-16545" yWindow="2445" windowWidth="29040" windowHeight="16440" xr2:uid="{6513259A-A664-4EB2-9248-5721F61D90F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="420">
   <si>
     <t>ID</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Pets in the Park</t>
-  </si>
-  <si>
-    <t>Safe Shelter ACT - st Columbis Braddon</t>
   </si>
   <si>
     <t>Saint Vincent De Paul - Family Services</t>
@@ -1290,6 +1287,171 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Parking, Toilets, Ramps</t>
+  </si>
+  <si>
+    <t>Anyone</t>
+  </si>
+  <si>
+    <t>12 to 25</t>
+  </si>
+  <si>
+    <t>Parking, Ramps, Wheelchair Access, Lift</t>
+  </si>
+  <si>
+    <t>Contact us for details</t>
+  </si>
+  <si>
+    <t>All ages</t>
+  </si>
+  <si>
+    <t>Wheelchair access</t>
+  </si>
+  <si>
+    <t>Wheelchair access, Toilets</t>
+  </si>
+  <si>
+    <t>No fee</t>
+  </si>
+  <si>
+    <t>12 to 21</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Dinka, Karen, Burmese, Thai, Swahiti, Arabic</t>
+  </si>
+  <si>
+    <t>Toilets, Lift, Wheelchair access</t>
+  </si>
+  <si>
+    <t>14 to 19</t>
+  </si>
+  <si>
+    <t>Contribution Fee</t>
+  </si>
+  <si>
+    <t>Wheelchair access, Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 to 18 </t>
+  </si>
+  <si>
+    <t>15 to 25</t>
+  </si>
+  <si>
+    <t>16 to 25</t>
+  </si>
+  <si>
+    <t>17 to 25</t>
+  </si>
+  <si>
+    <t>Clinical Manager or Clinician</t>
+  </si>
+  <si>
+    <t>18 to 24</t>
+  </si>
+  <si>
+    <t>Italian, Tibetan, French, Dutch, Amharic, Hindi, Korean</t>
+  </si>
+  <si>
+    <t>Parking, Toilets, Wheelchair access</t>
+  </si>
+  <si>
+    <t>Approved service users</t>
+  </si>
+  <si>
+    <t>State/ Territory Government</t>
+  </si>
+  <si>
+    <t>13 to 18</t>
+  </si>
+  <si>
+    <t>Parking, Toilets, Ramp</t>
+  </si>
+  <si>
+    <t>Parking, Toilets</t>
+  </si>
+  <si>
+    <t>Wheelchair Access</t>
+  </si>
+  <si>
+    <t>Parking, Ramps</t>
+  </si>
+  <si>
+    <t>Some available, contact us for more details</t>
+  </si>
+  <si>
+    <t>An Organisation</t>
+  </si>
+  <si>
+    <t>Safe Shelter ACT - st Columba's Braddon</t>
+  </si>
+  <si>
+    <t>Wheelchair Access, Toilets</t>
+  </si>
+  <si>
+    <t>Males only</t>
+  </si>
+  <si>
+    <t>over 16</t>
+  </si>
+  <si>
+    <t>12 to 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheelchair Access, Toilets, </t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Parking, Disabled Toilet, Ramp to main entrance</t>
+  </si>
+  <si>
+    <t>Over 18</t>
+  </si>
+  <si>
+    <t>Parking, Toilets, Lift</t>
+  </si>
+  <si>
+    <t>Approved service users, Male only</t>
+  </si>
+  <si>
+    <t>Anyone, Female Only</t>
+  </si>
+  <si>
+    <t>Wheelchair Access, Ramps, Toilets</t>
+  </si>
+  <si>
+    <t>Self Referral</t>
+  </si>
+  <si>
+    <t>Ramp, Toilets</t>
+  </si>
+  <si>
+    <t>over 18</t>
+  </si>
+  <si>
+    <t>Anyone, Male only</t>
+  </si>
+  <si>
+    <t>Toilets, Hearing Loop, Wheelchair Access</t>
+  </si>
+  <si>
+    <t>Range of languages available, translating service can be arranged</t>
+  </si>
+  <si>
+    <t>Wheelchair Access, Disabled Toiletss</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>For languages other than English call 13 12 02</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1573,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1436,6 +1598,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1450,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1479,6 +1647,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1794,44 +1963,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC10918-42F0-487A-BC91-5430C93E809D}">
-  <dimension ref="A1:AA63"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="11"/>
-    <col min="13" max="13" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="57.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="87" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="67" style="11" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="11" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18" style="11" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="50.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="68.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1848,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>5</v>
@@ -1863,58 +2037,61 @@
         <v>7</v>
       </c>
       <c r="K1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>260</v>
-      </c>
       <c r="R1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1922,13 +2099,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="2">
         <v>-35.230167999999999</v>
@@ -1937,28 +2114,31 @@
         <v>149.07014000000001</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="N2" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1966,13 +2146,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2">
         <v>-35.230167999999999</v>
@@ -1981,28 +2161,37 @@
         <v>149.07014000000001</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2010,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="20">
         <v>-35.275761000000003</v>
@@ -2025,39 +2214,51 @@
         <v>149.13343800000001</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="F5" s="20">
         <v>-35.243746000000002</v>
@@ -2066,25 +2267,37 @@
         <v>149.142245</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2092,13 +2305,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="20">
         <v>-35.278410999999998</v>
@@ -2107,22 +2320,34 @@
         <v>149.124878</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2130,13 +2355,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="20">
         <v>-35.280279999999998</v>
@@ -2145,25 +2370,40 @@
         <v>149.13091499999999</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2171,13 +2411,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="20">
         <v>-35.277106000000003</v>
@@ -2186,25 +2426,37 @@
         <v>149.13452799999999</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2212,13 +2464,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="20">
         <v>-35.277106000000003</v>
@@ -2227,22 +2479,34 @@
         <v>149.13452799999999</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2250,13 +2514,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="20">
         <v>-35.277106000000003</v>
@@ -2265,22 +2529,34 @@
         <v>149.13452799999999</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2288,13 +2564,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="20">
         <v>-35.226416</v>
@@ -2303,22 +2579,31 @@
         <v>149.16032300000001</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2326,13 +2611,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="F12" s="20">
         <v>-35.309708999999998</v>
@@ -2341,25 +2626,37 @@
         <v>149.10427000000001</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="N12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2367,13 +2664,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="20">
         <v>-35.288003000000003</v>
@@ -2382,22 +2679,34 @@
         <v>149.14018100000001</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2405,13 +2714,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="F14" s="20">
         <v>-35.342942000000001</v>
@@ -2420,22 +2729,40 @@
         <v>149.08891399999999</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2443,13 +2770,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="20">
         <v>-35.345286000000002</v>
@@ -2458,45 +2785,48 @@
         <v>149.083472</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="20">
         <v>-35.339137000000001</v>
@@ -2505,22 +2835,34 @@
         <v>149.12949399999999</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2528,13 +2870,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="20">
         <v>-35.339137000000001</v>
@@ -2543,25 +2885,34 @@
         <v>149.12949399999999</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2569,13 +2920,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="20">
         <v>-35.390707999999997</v>
@@ -2584,22 +2935,34 @@
         <v>149.06197499999999</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2607,13 +2970,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="20">
         <v>-35.402481000000002</v>
@@ -2622,22 +2985,34 @@
         <v>149.09820099999999</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2645,13 +3020,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="20">
         <v>-35.353029999999997</v>
@@ -2660,19 +3035,28 @@
         <v>149.23504700000001</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="L20" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2680,13 +3064,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="F21" s="20">
         <v>-35.420056000000002</v>
@@ -2695,22 +3079,28 @@
         <v>149.12884199999999</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2718,13 +3108,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="F22" s="20">
         <v>-35.361944999999999</v>
@@ -2733,19 +3123,19 @@
         <v>149.23592300000001</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="L22" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2753,13 +3143,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="F23" s="20">
         <v>-35.187291000000002</v>
@@ -2768,25 +3158,34 @@
         <v>149.13291100000001</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2794,13 +3193,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="20">
         <v>-35.274793000000003</v>
@@ -2809,22 +3208,37 @@
         <v>149.12630799999999</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2832,13 +3246,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="F25" s="20">
         <v>-35.276482999999999</v>
@@ -2847,25 +3261,37 @@
         <v>149.12903800000001</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="L25" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -2873,13 +3299,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="20">
         <v>-35.275928999999998</v>
@@ -2888,36 +3314,48 @@
         <v>149.12916000000001</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="20">
         <v>-35.276921999999999</v>
@@ -2926,39 +3364,51 @@
         <v>149.13252</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="20">
         <v>-35.271681999999998</v>
@@ -2967,36 +3417,48 @@
         <v>149.13616999999999</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F29" s="20">
         <v>-35.315415999999999</v>
@@ -3005,39 +3467,51 @@
         <v>149.096979</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="F30" s="20">
         <v>-35.281382000000001</v>
@@ -3046,42 +3520,51 @@
         <v>149.14460099999999</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I30" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="L30" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="20">
         <v>-35.238292999999999</v>
@@ -3090,36 +3573,48 @@
         <v>149.16719900000001</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F32" s="20">
         <v>-35.345129999999997</v>
@@ -3128,39 +3623,51 @@
         <v>149.08347599999999</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="20">
         <v>-35.339146</v>
@@ -3169,39 +3676,48 @@
         <v>149.12946199999999</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="20">
         <v>-35.276722999999997</v>
@@ -3210,42 +3726,57 @@
         <v>149.132352</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F35" s="20">
         <v>-35.274402000000002</v>
@@ -3254,39 +3785,51 @@
         <v>149.147111</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA35" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F36" s="20">
         <v>-35.449862000000003</v>
@@ -3295,39 +3838,51 @@
         <v>149.084125</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U36" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F37" s="20">
         <v>-35.449862000000003</v>
@@ -3336,36 +3891,48 @@
         <v>149.084125</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="20">
         <v>-35.339015000000003</v>
@@ -3374,36 +3941,48 @@
         <v>149.12946199999999</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA38" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F39" s="20">
         <v>-35.281162000000002</v>
@@ -3412,36 +3991,36 @@
         <v>149.12971400000001</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="20">
         <v>-35.281162000000002</v>
@@ -3450,39 +4029,51 @@
         <v>149.12971400000001</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA40" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F41" s="20">
         <v>-35.261248000000002</v>
@@ -3491,36 +4082,48 @@
         <v>149.14780200000001</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" s="20">
         <v>-35.319375999999998</v>
@@ -3529,42 +4132,51 @@
         <v>149.10104699999999</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA42" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="20">
         <v>-35.319375999999998</v>
@@ -3573,39 +4185,51 @@
         <v>149.10104699999999</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F44" s="20">
         <v>-35.246606999999997</v>
@@ -3614,36 +4238,51 @@
         <v>149.163612</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I44" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="K44" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="20">
         <v>-35.317388000000001</v>
@@ -3652,36 +4291,45 @@
         <v>149.09765899999999</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="J45" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="Q45" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F46" s="20">
         <v>-35.253079</v>
@@ -3690,39 +4338,51 @@
         <v>149.07105899999999</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z46" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA46" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" s="20">
         <v>-35.279831000000001</v>
@@ -3731,39 +4391,51 @@
         <v>149.127826</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="F48" s="20">
         <v>-35.301985000000002</v>
@@ -3772,42 +4444,60 @@
         <v>149.11573300000001</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="X48" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA48" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB48" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F49" s="20">
         <v>-35.281723</v>
@@ -3816,48 +4506,57 @@
         <v>149.127397</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
-        <v>49</v>
+        <v>260</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" s="20">
         <v>-35.278446000000002</v>
@@ -3866,39 +4565,42 @@
         <v>149.12482499999999</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W50" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" s="20">
         <v>-35.281815999999999</v>
@@ -3907,36 +4609,45 @@
         <v>149.13251299999999</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA51" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F52" s="20">
         <v>-35.222234999999998</v>
@@ -3945,36 +4656,45 @@
         <v>149.01879</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z52" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F53" s="20">
         <v>-35.238982999999998</v>
@@ -3983,36 +4703,48 @@
         <v>149.070393</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W53" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="X53" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z53" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA53" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F54" s="20">
         <v>-35.420029</v>
@@ -4021,36 +4753,42 @@
         <v>149.12880999999999</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="Z54" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA54" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F55" s="20">
         <v>-35.237757999999999</v>
@@ -4059,45 +4797,60 @@
         <v>149.06886499999999</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="W55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z55" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA55" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB55" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F56" s="20">
         <v>-35.341723000000002</v>
@@ -4106,45 +4859,60 @@
         <v>149.08563899999999</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA56" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB56" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F57" s="20">
         <v>-35.185274</v>
@@ -4153,45 +4921,60 @@
         <v>149.13436799999999</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X57" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA57" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F58" s="20">
         <v>-35.273963000000002</v>
@@ -4200,45 +4983,60 @@
         <v>149.132565</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA58" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB58" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F59" s="20">
         <v>-35.418911999999999</v>
@@ -4247,45 +5045,60 @@
         <v>149.07028800000001</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W59" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA59" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="20">
         <v>-35.402332999999999</v>
@@ -4294,33 +5107,45 @@
         <v>149.09812600000001</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W60" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y60" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z60" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F61" s="20">
         <v>-35.30977</v>
@@ -4329,36 +5154,48 @@
         <v>149.104173</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I61" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="N61" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z61" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA61" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>62</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" s="20">
         <v>-35.281652999999999</v>
@@ -4367,39 +5204,39 @@
         <v>149.12834100000001</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>63</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="F63" s="20">
         <v>-35.279265000000002</v>
@@ -4408,22 +5245,31 @@
         <v>149.12961100000001</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I63" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>303</v>
-      </c>
       <c r="N63" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q63" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="X63" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z63" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA63" s="11" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4560,6 +5406,6 @@
     <hyperlink ref="E63" r:id="rId130" display="http://maps.google.com/?q=99+London+Cct%2c+Canberra+City+ACT+2601" xr:uid="{A9BB77EC-75D1-4E68-AE71-D8A8D98E79B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId131"/>
+  <pageSetup paperSize="8" scale="69" orientation="landscape" r:id="rId131"/>
 </worksheet>
 </file>